--- a/pesantren/laporan tahfidz/siap putra - pekan 2, september 2023.xlsx
+++ b/pesantren/laporan tahfidz/siap putra - pekan 2, september 2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\zen\pesantren\laporan tahfidz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C792B2B-4A45-4E95-AA77-F6F5CAFB9E58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AC6384-CD92-4179-9F7D-1B0415E432DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>Persiapan Juziyah</t>
   </si>
@@ -84,7 +84,34 @@
     <t>5 kali</t>
   </si>
   <si>
-    <t>1 juz (selesai)</t>
+    <t>Sakit</t>
+  </si>
+  <si>
+    <t>Juz 6, 8A</t>
+  </si>
+  <si>
+    <t>4 halaman</t>
+  </si>
+  <si>
+    <t>Juz 29, 10B</t>
+  </si>
+  <si>
+    <t>3 halaman</t>
+  </si>
+  <si>
+    <t>Juz 6, 8B</t>
+  </si>
+  <si>
+    <t>Juz 3, 9B</t>
+  </si>
+  <si>
+    <t>Juz 3, 10B</t>
+  </si>
+  <si>
+    <t>Juzz 5, 8B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 halaman </t>
   </si>
 </sst>
 </file>
@@ -414,16 +441,16 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -457,9 +484,6 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
       <c r="F2" t="s">
         <v>0</v>
       </c>
@@ -468,11 +492,29 @@
       <c r="A3" t="s">
         <v>9</v>
       </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
       <c r="F4" t="s">
         <v>0</v>
       </c>
@@ -481,26 +523,68 @@
       <c r="A5" t="s">
         <v>11</v>
       </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
       <c r="F9" t="s">
         <v>2</v>
       </c>
@@ -508,6 +592,15 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
       </c>
       <c r="F10" t="s">
         <v>2</v>
